--- a/results/I1_S6_res.xlsx
+++ b/results/I1_S6_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12555.83510793094</v>
+        <v>706.4655210009822</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>300.5369999408722</v>
+        <v>1800.070000171661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.3628781571713591</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>67.41142439974281</v>
+        <v>67.5255210009861</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>42.64387043423882</v>
+        <v>1.598270315059377</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>24.767553965504</v>
+        <v>1.598270315059377</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>12506.29999999993</v>
+        <v>257.7999999999961</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>381.14</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,163 +570,9 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
         <v>1</v>
       </c>
     </row>
@@ -759,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -770,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -781,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -792,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -803,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -814,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -825,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -836,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -847,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -858,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -869,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -880,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -891,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -926,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -992,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1003,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1025,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1098,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.60033324079214</v>
+        <v>12.39677377384939</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1106,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.89182235570694</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1114,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.34885527085025</v>
+        <v>24.04101472405138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1122,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.01405508909692</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1130,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>36.98099133308861</v>
+        <v>21.98099133308872</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1138,7 +984,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>24.38986999490163</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1146,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>12.99710701464153</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1154,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.71361093483237</v>
+        <v>17.57744882287703</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1162,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.25994021527769</v>
+        <v>20.0311195424317</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1170,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.05114492073182</v>
+        <v>15.00869842444621</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1178,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1186,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1194,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,701 +1072,15 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51">
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>146.8700000000008</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2022,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>206.8700000000008</v>
+        <v>40.10000000000036</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2033,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>266.8700000000008</v>
+        <v>11.95000000000082</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2044,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>326.8700000000008</v>
+        <v>25.3799999999992</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2055,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>386.8700000000008</v>
+        <v>35.63000000000102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2066,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>269.610000000011</v>
+        <v>46.23999999999978</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2077,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>359.6099999999988</v>
+        <v>44.15999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2088,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>449.6099999999988</v>
+        <v>28.95000000000073</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2099,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>539.6099999999878</v>
+        <v>34.60000000000036</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2110,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>629.6099999999988</v>
+        <v>33.70999999999925</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2121,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>174.0199999999986</v>
+        <v>63.91999999999825</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2132,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>234.0199999999986</v>
+        <v>78.22000000000116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2143,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>294.0199999999986</v>
+        <v>69.76000000000022</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2154,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>354.0199999999873</v>
+        <v>60.33000000000175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2165,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>414.0199999999988</v>
+        <v>63.70999999999913</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2176,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>95.84000000000015</v>
+        <v>122.2900000000009</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2187,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>125.8399999999929</v>
+        <v>132.869999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2198,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>155.8399999999947</v>
+        <v>88.6200000000008</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2209,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>185.8400000000001</v>
+        <v>111.3600000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2220,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>215.8399999999998</v>
+        <v>98.77000000000044</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2231,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>299.9599999999893</v>
+        <v>122.8599999999988</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2242,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>419.9599999999991</v>
+        <v>96.46999999999935</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2253,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>539.9599999999991</v>
+        <v>82.86999999999945</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2264,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>659.9599999999991</v>
+        <v>98.31999999999971</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2275,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>779.9599999999991</v>
+        <v>62.52000000000044</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2286,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>84.05</v>
+        <v>109.539999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2297,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>114.05</v>
+        <v>128.4100000000007</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2308,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>144.05</v>
+        <v>99.68000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2319,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>174.05</v>
+        <v>101.5700000000018</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2330,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>204.05</v>
+        <v>93.31999999999891</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2341,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>90.51000000000022</v>
+        <v>66.1600000000003</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2352,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>120.5100000000002</v>
+        <v>74.38000000000065</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2363,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>150.5100000000002</v>
+        <v>21.94000000000061</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2374,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>180.5100000000002</v>
+        <v>42.24999999999942</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2385,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>210.5100000000002</v>
+        <v>57.24000000000139</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2396,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>261.0599999999904</v>
+        <v>17.86999999999984</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2407,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>351.0600000000014</v>
+        <v>29.78000000000065</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2418,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>441.0599999999961</v>
+        <v>23.68000000000029</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2429,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>531.0599999999959</v>
+        <v>35.40999999999985</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2440,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>621.0600000000013</v>
+        <v>19.92000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2451,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>185.1100000000006</v>
+        <v>78.45999999999913</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2462,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>245.1099999999933</v>
+        <v>64.34999999999862</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2473,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>305.1099999999951</v>
+        <v>53.31000000000147</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2484,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>365.1099999999951</v>
+        <v>58.52999999999986</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2495,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>425.1100000000006</v>
+        <v>40.65000000000014</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2506,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>206.3299999999901</v>
+        <v>86.64000000000124</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2517,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>296.3299999999999</v>
+        <v>96.60000000000036</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2528,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>386.3299999999999</v>
+        <v>47.38000000000102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2539,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>476.33</v>
+        <v>70.13000000000102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2550,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>566.3299999999999</v>
+        <v>69.21000000000095</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2561,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>261.0599999999904</v>
+        <v>122.2900000000016</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2572,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>351.0600000000014</v>
+        <v>132.869999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2583,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>441.0599999999961</v>
+        <v>88.6200000000008</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2594,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>531.0599999999959</v>
+        <v>111.3600000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2605,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>621.0600000000013</v>
+        <v>98.77000000000044</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2616,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>299.9599999999893</v>
+        <v>109.5399999999986</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2627,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>419.9599999999991</v>
+        <v>128.4099999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2638,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>539.9599999999991</v>
+        <v>99.68000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2649,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>659.9599999999991</v>
+        <v>101.570000000001</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2660,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>779.9599999999991</v>
+        <v>93.31999999999923</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2671,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>269.6100000000097</v>
+        <v>122.8599999999979</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2682,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>359.6099999999988</v>
+        <v>96.46999999999932</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2693,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>449.6099999999988</v>
+        <v>82.8700000000031</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2704,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>539.6099999999878</v>
+        <v>98.31999999999968</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2715,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>629.6099999999988</v>
+        <v>62.52000000000041</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>201.0599999999904</v>
+        <v>22.29000000000164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2761,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>291.0600000000014</v>
+        <v>32.86999999999895</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2772,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>381.0599999999961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2783,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>471.0599999999959</v>
+        <v>11.3600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2794,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>561.0600000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2805,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>239.9599999999893</v>
+        <v>9.539999999998571</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2816,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>359.9599999999991</v>
+        <v>28.40999999999985</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2827,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>479.9599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2838,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>599.9599999999991</v>
+        <v>1.570000000001045</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2849,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>719.9599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2860,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>209.6100000000097</v>
+        <v>22.85999999999788</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2871,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>299.6099999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2882,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>389.6099999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2893,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>479.6099999999878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2904,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>569.6099999999988</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2950,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2961,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2972,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2983,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3269,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3280,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3291,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3302,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3313,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3324,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3335,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3346,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3357,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3368,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3434,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3445,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3456,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3467,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3478,7 +2638,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>17.74</v>
       </c>
     </row>
   </sheetData>
@@ -3488,7 +2648,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3507,7 +2667,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3518,7 +2678,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3529,10 +2689,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3540,10 +2700,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3551,10 +2711,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3562,10 +2722,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3573,485 +2733,12 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>9</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>9</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>10</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51">
         <v>1</v>
       </c>
     </row>

--- a/results/I1_S6_res.xlsx
+++ b/results/I1_S6_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>706.4655210009822</v>
+        <v>706.4655210009862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1800.070000171661</v>
+        <v>10307.1819999218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.3628781571713591</v>
+        <v>5.662434058441323E-07</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.598270315059377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.598270315059377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>257.7999999999961</v>
+        <v>257.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -548,7 +548,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -563,17 +563,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -693,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -968,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>22.00864842470311</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -976,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.98099133308872</v>
+        <v>21.98099133308861</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -984,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.38986999490163</v>
+        <v>25.23527545392182</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1000,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.57744882287703</v>
+        <v>10.28638906516763</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1008,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.0311195424317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1016,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.00869842444621</v>
+        <v>18.45488985102369</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1050,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1068,20 +1057,6 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>40.10000000000036</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1193,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>11.95000000000082</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1204,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>25.3799999999992</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1215,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>35.63000000000102</v>
+        <v>35.63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1226,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>46.23999999999978</v>
+        <v>46.24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1237,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>44.15999999999999</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1248,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>28.95000000000073</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1259,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>34.60000000000036</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1270,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>33.70999999999925</v>
+        <v>33.70999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1281,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>63.91999999999825</v>
+        <v>63.92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1292,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>78.22000000000116</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1303,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>69.76000000000022</v>
+        <v>69.76000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1314,7 +1289,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>60.33000000000175</v>
+        <v>60.33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1325,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>63.70999999999913</v>
+        <v>63.70999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1336,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>122.2900000000009</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1347,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>132.869999999999</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1358,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>88.6200000000008</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1369,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>111.3600000000001</v>
+        <v>111.36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1380,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>98.77000000000044</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1391,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>122.8599999999988</v>
+        <v>122.86</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1402,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>96.46999999999935</v>
+        <v>96.47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1413,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>82.86999999999945</v>
+        <v>82.87</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1424,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>98.31999999999971</v>
+        <v>98.31999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1435,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>62.52000000000044</v>
+        <v>62.52000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1446,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>109.539999999999</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1457,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>128.4100000000007</v>
+        <v>128.41</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1468,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>99.68000000000008</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1479,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>101.5700000000018</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1490,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>93.31999999999891</v>
+        <v>93.31999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1501,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>66.1600000000003</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1512,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>74.38000000000065</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1523,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>21.94000000000061</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1534,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>42.24999999999942</v>
+        <v>42.25</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1545,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>57.24000000000139</v>
+        <v>57.23999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1556,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>17.86999999999984</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1567,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>29.78000000000065</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1578,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>23.68000000000029</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1589,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>35.40999999999985</v>
+        <v>35.41</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1600,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>19.92000000000007</v>
+        <v>19.92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1611,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>78.45999999999913</v>
+        <v>78.46000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1622,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>64.34999999999862</v>
+        <v>64.34999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1633,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>53.31000000000147</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1644,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>58.52999999999986</v>
+        <v>58.53</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1655,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>40.65000000000014</v>
+        <v>40.65000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1666,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>86.64000000000124</v>
+        <v>86.64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1677,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>96.60000000000036</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1688,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>47.38000000000102</v>
+        <v>47.38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1699,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>70.13000000000102</v>
+        <v>70.13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1710,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>69.21000000000095</v>
+        <v>69.20999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1721,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>122.2900000000016</v>
+        <v>109.54</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1732,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>132.869999999999</v>
+        <v>128.41</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1743,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>88.6200000000008</v>
+        <v>99.68000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1754,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>111.3600000000001</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1765,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>98.77000000000044</v>
+        <v>93.31999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1776,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>109.5399999999986</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1787,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>128.4099999999999</v>
+        <v>132.87</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1798,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>99.68000000000004</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1809,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>101.570000000001</v>
+        <v>111.36</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1820,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>93.31999999999923</v>
+        <v>98.77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1831,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>122.8599999999979</v>
+        <v>122.86</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1842,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>96.46999999999932</v>
+        <v>96.47</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1853,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>82.8700000000031</v>
+        <v>82.87</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1864,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>98.31999999999968</v>
+        <v>98.31999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1875,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>62.52000000000041</v>
+        <v>62.52000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>22.29000000000164</v>
+        <v>9.539999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1921,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>32.86999999999895</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1943,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>11.3600000000001</v>
+        <v>1.569999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1965,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>9.539999999998571</v>
+        <v>22.28999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1976,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>28.40999999999985</v>
+        <v>32.87</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1998,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1.570000000001045</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2020,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>22.85999999999788</v>
+        <v>22.86000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
